--- a/BERGADO, MARILOU BAYOT.xlsx
+++ b/BERGADO, MARILOU BAYOT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>2/20-24/2023</t>
+  </si>
+  <si>
+    <t>VL(10-0-0)</t>
+  </si>
+  <si>
+    <t>10/18-31/2023</t>
   </si>
 </sst>
 </file>
@@ -939,7 +945,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -982,7 +988,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,7 +1052,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,7 +1112,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1172,7 +1178,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1241,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1339,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1398,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1463,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1506,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1581,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1767,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1833,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1885,7 +1891,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1957,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2013,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2088,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2131,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2197,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2253,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,9 +2699,9 @@
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A50" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,7 +2864,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.75</v>
+        <v>22.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2868,7 +2874,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.75</v>
+        <v>59.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3954,15 +3960,19 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="40">
+        <v>44986</v>
+      </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
@@ -3970,15 +3980,19 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>45017</v>
+      </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -3986,15 +4000,19 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>45047</v>
+      </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4002,15 +4020,19 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>45078</v>
+      </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4018,15 +4040,19 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>45108</v>
+      </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
@@ -4034,15 +4060,19 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>45139</v>
+      </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
@@ -4050,10 +4080,16 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>10</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13" t="str">
@@ -4063,10 +4099,14 @@
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>45200</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -4082,7 +4122,9 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="40">
+        <v>45231</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
